--- a/Efforts_3_2021.xlsx
+++ b/Efforts_3_2021.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data_2021-03-21" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,8 +34,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e6f738"/>
-        <bgColor rgb="00e6f738"/>
+        <fgColor rgb="FFE6F738"/>
+        <bgColor rgb="FFE6F738"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -420,10 +419,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -486,11 +485,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ticket</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>rikushwa</t>
@@ -498,31 +494,297 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Incident</t>
+          <t>Meetings / Communication</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Incident</t>
+          <t>Mail Communication</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-03-01 16:15:52</t>
+          <t>2021-03-02 22:52:51</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>TOPSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>rikushwa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Service-Task</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DSTUM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-03-02 22:52:51</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>TOPSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SCTASK0073278</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>rikushwa</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-03-02 22:52:51</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0.75</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>TOPSI</t>
         </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>INC0597119</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rikushwa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-03-02 22:52:51</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>TOPSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>INC0580213</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>rikushwa</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-03-02 22:52:51</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>TOPSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SCTASK0073460</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>rikushwa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-03-02 22:52:51</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>TOPSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>INC0597552</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>rikushwa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Incident</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-03-02 22:52:51</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>TOPSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <f>SUM(G1:G9)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Efforts_3_2021.xlsx
+++ b/Efforts_3_2021.xlsx
@@ -2,12 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_2021-03-21" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data_2021-03-22" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35,8 +34,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e6f738"/>
-        <bgColor rgb="00e6f738"/>
+        <fgColor rgb="FFE6F738"/>
+        <bgColor rgb="FFE6F738"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -422,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -490,7 +489,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rikushwa</t>
+          <t>user_name</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,7 +504,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-03-21 23:49:28</t>
+          <t>2021-03-22 00:24:57</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -520,7 +519,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>TOPSI</t>
+          <t>project_name</t>
         </is>
       </c>
     </row>
@@ -533,7 +532,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rikushwa</t>
+          <t>user_name</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +547,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-03-21 23:49:28</t>
+          <t>2021-03-22 00:24:57</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -563,7 +562,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>TOPSI</t>
+          <t>project_name</t>
         </is>
       </c>
     </row>
@@ -576,7 +575,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rikushwa</t>
+          <t>user_name</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -591,7 +590,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-03-21 23:49:28</t>
+          <t>2021-03-22 00:24:57</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -606,39 +605,39 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>TOPSI</t>
+          <t>project_name</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHG</t>
+          <t>SCTASK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rikushwa</t>
+          <t>user_name</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Change Request</t>
+          <t>Incident</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Third party coordination</t>
+          <t>Incident</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-03-21 23:49:28</t>
+          <t>2021-03-22 00:24:57</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -649,39 +648,39 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>TOPSI</t>
+          <t>project_name</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SCTASK</t>
+          <t>CHG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rikushwa</t>
+          <t>user_name</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Incident</t>
+          <t>Change Request</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Incident</t>
+          <t>Third party coordination</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-03-21 23:49:28</t>
+          <t>2021-03-22 00:24:57</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -692,7 +691,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>TOPSI</t>
+          <t>project_name</t>
         </is>
       </c>
     </row>
